--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Kentucky\eps-kentucky\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268FE25-6FA1-4964-97BE-7705BD55074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity Calculations" sheetId="5" r:id="rId2"/>
-    <sheet name="BCS" sheetId="4" r:id="rId3"/>
+    <sheet name="BCS-BCS" sheetId="4" r:id="rId3"/>
+    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Source:</t>
   </si>
@@ -106,6 +107,18 @@
   </si>
   <si>
     <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>45Q Duration</t>
+  </si>
+  <si>
+    <t>12 years</t>
   </si>
 </sst>
 </file>
@@ -161,7 +174,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,7 +185,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -479,25 +491,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,22 +517,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.78500000000000003</v>
       </c>
@@ -528,12 +540,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -550,12 +570,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -564,7 +584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -572,7 +592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -580,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -601,17 +621,17 @@
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -706,7 +726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -716,45 +736,45 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="J2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="K2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="M2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
+      <c r="D2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="E2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="F2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="G2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="H2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="I2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="J2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="K2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="L2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
+      </c>
+      <c r="M2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -811,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -914,6 +934,243 @@
       </c>
       <c r="AE3">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698252-CD29-4D86-9D7F-2214C5598602}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>$B$2</f>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <f>$B$2</f>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:AE2" si="0">$B$2</f>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268FE25-6FA1-4964-97BE-7705BD55074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713F7CF-0A9E-46D6-8386-EAB51C9BD0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -79,9 +79,6 @@
     <t>None needed</t>
   </si>
   <si>
-    <t>2022 to 2012 USD</t>
-  </si>
-  <si>
     <t>This variable captures any BAU subsidies for CCS, specified in dollars per ton captured.</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>45Q Tax Credit Amount</t>
   </si>
   <si>
-    <t>Credit Amount</t>
-  </si>
-  <si>
     <t>Repayment Period for Financing</t>
   </si>
   <si>
@@ -119,6 +113,18 @@
   </si>
   <si>
     <t>12 years</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/data/inflation_calculator.htm</t>
+  </si>
+  <si>
+    <t>2024 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Credit Amount, 2012 USD</t>
+  </si>
+  <si>
+    <t>*inflation adjusted starting in 2025, so we use the 2024 currency year to adjust to 2012 $</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,6 +191,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -491,25 +498,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,43 +524,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>0.78500000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -570,43 +586,43 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7">
-        <f>About!B11</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <f>About!B11*About!A9</f>
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
         <f>B1*B3/B2</f>
-        <v>51</v>
+        <v>37.229999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -622,18 +638,18 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+      <selection activeCell="G2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2">
         <v>2021</v>
@@ -726,7 +742,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -736,45 +752,45 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="E2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="F2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="G2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="H2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="I2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="J2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="K2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="L2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="M2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+      <c r="D2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="M2" s="8">
+        <f>'Electricity Calculations'!$B$4</f>
+        <v>37.229999999999997</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -831,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -843,43 +859,43 @@
       </c>
       <c r="D3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="E3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="F3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="G3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="H3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="I3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="J3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="K3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="L3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="M3">
         <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>62.05</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -952,11 +968,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -1049,9 +1065,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713F7CF-0A9E-46D6-8386-EAB51C9BD0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3F35D-7F66-4C00-89AD-AA6C0182CF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Electricity Calculations" sheetId="5" r:id="rId2"/>
-    <sheet name="BCS-BCS" sheetId="4" r:id="rId3"/>
-    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId4"/>
+    <sheet name="BCS-BCS" sheetId="4" r:id="rId2"/>
+    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Source:</t>
   </si>
@@ -91,15 +90,6 @@
     <t>45Q Tax Credit Amount</t>
   </si>
   <si>
-    <t>Repayment Period for Financing</t>
-  </si>
-  <si>
-    <t>45Q Credit Duration</t>
-  </si>
-  <si>
-    <t>Credit Value</t>
-  </si>
-  <si>
     <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
   </si>
   <si>
@@ -121,10 +111,13 @@
     <t>2024 to 2012 USD</t>
   </si>
   <si>
-    <t>Credit Amount, 2012 USD</t>
-  </si>
-  <si>
     <t>*inflation adjusted starting in 2025, so we use the 2024 currency year to adjust to 2012 $</t>
+  </si>
+  <si>
+    <t>45Q tax credits include a commenced construction provision. Based on EIA data, we assume a construction timeline</t>
+  </si>
+  <si>
+    <t>of 3 years for the electricity sector.</t>
   </si>
 </sst>
 </file>
@@ -180,7 +173,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,7 +183,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -209,6 +201,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="x_x_Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6796C786-003E-1A25-FAA4-2477005227A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="2895600"/>
+          <a:ext cx="9429750" cy="6324600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +588,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +596,10 @@
         <v>0.73</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,77 +612,36 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB35C55-7F27-44A6-A8A7-496D78F28576}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7">
-        <f>About!B11*About!A9</f>
-        <v>62.05</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7">
-        <f>B1*B3/B2</f>
-        <v>37.229999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -638,7 +649,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="F2:G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,54 +763,57 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="J2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="K2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
-      </c>
-      <c r="M2" s="8">
-        <f>'Electricity Calculations'!$B$4</f>
-        <v>37.229999999999997</v>
+      <c r="D2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="E2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="F2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="G2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="H2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="I2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="J2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="K2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="L2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
+      </c>
+      <c r="M2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>62.05</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -857,7 +871,7 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <f>About!$B$11*About!$A$9</f>
         <v>62.05</v>
       </c>
@@ -957,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698252-CD29-4D86-9D7F-2214C5598602}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -972,7 +986,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -1067,7 +1081,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3F35D-7F66-4C00-89AD-AA6C0182CF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519D7CE-E98F-413E-A6DF-5C9601EE62D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BCS-BCS" sheetId="4" r:id="rId2"/>
-    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="7" r:id="rId2"/>
+    <sheet name="BCS-BCS" sheetId="4" r:id="rId3"/>
+    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Source:</t>
   </si>
@@ -118,6 +119,117 @@
   </si>
   <si>
     <t>of 3 years for the electricity sector.</t>
+  </si>
+  <si>
+    <t>45Q phase-in period</t>
+  </si>
+  <si>
+    <t>45Q phase-out period</t>
+  </si>
+  <si>
+    <t>The potentials below use the "High emissions" values from the Rhodium figure above and are presented as MMT of capture capacity.</t>
+  </si>
+  <si>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19 - energy</t>
+  </si>
+  <si>
+    <t>*mapped to energy-related emissions rather than process emissions, since CCS equipment is installed on crackers</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19 - process</t>
+  </si>
+  <si>
+    <t>*mapped to process emissions</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>*ammonia not counted because we assume this industry is decarbonized through the hydrogen PTC</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>*We use the data below for calculating the fraction of CCS potential achieved by industry. We do not subscript 45Q tax credits by sub-industry, so we must</t>
+  </si>
+  <si>
+    <t>choose a representative value for determining how to apply a duration multiplier. Since most of the incremental CCS comes online between 2030-2035, we use that timeline.</t>
+  </si>
+  <si>
+    <t>The electricity sector calculations properly apply the tax credit duration depending on when CCS capacity comes online.</t>
+  </si>
+  <si>
+    <t>However, the industry sector does not have stock tracking for CCS equipment. Therefore, we adjust the BAU subsidy</t>
+  </si>
+  <si>
+    <t>values for industry only to reflect the duration multiplier.</t>
   </si>
 </sst>
 </file>
@@ -173,17 +285,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -550,25 +663,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.81640625" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,23 +689,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>0.73</v>
       </c>
       <c r="B9" t="s">
@@ -602,21 +715,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -624,14 +737,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -642,23 +770,568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1086F14D-0ABA-4CBC-A6C8-8AA6F7BA1ED0}">
+  <dimension ref="A1:AE35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:AE3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B1" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="6">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="6">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="6">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="6">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="6">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="6">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="6">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="6">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="6">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <f>L2+1/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:P2" si="0">M2+1/5</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>IFERROR(IF(A3=1,1,INDEX($B$2:$AE$2,MATCH((B1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>IFERROR(IF(B3=1,1,INDEX($B$2:$AE$2,MATCH((C1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>IFERROR(IF(C3=1,1,INDEX($B$2:$AE$2,MATCH((D1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IFERROR(IF(D3=1,1,INDEX($B$2:$AE$2,MATCH((E1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(IF(E3=1,1,INDEX($B$2:$AE$2,MATCH((F1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(IF(F3=1,1,INDEX($B$2:$AE$2,MATCH((G1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IFERROR(IF(G3=1,1,INDEX($B$2:$AE$2,MATCH((H1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IFERROR(IF(H3=1,1,INDEX($B$2:$AE$2,MATCH((I1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(IF(I3=1,1,INDEX($B$2:$AE$2,MATCH((J1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(IF(J3=1,1,INDEX($B$2:$AE$2,MATCH((K1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR(IF(K3=1,1,INDEX($B$2:$AE$2,MATCH((L1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IFERROR(IF(L3=1,1,INDEX($B$2:$AE$2,MATCH((M1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IFERROR(IF(M3=1,1,INDEX($B$2:$AE$2,MATCH((N1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>IFERROR(IF(N3=1,1,INDEX($B$2:$AE$2,MATCH((O1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IFERROR(IF(O3=1,1,INDEX($B$2:$AE$2,MATCH((P1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IFERROR(IF(P3=1,1,INDEX($B$2:$AE$2,MATCH((Q1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>IFERROR(IF(Q3=1,1,INDEX($B$2:$AE$2,MATCH((R1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>IFERROR(IF(R3=1,1,INDEX($B$2:$AE$2,MATCH((S1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>IFERROR(IF(S3=1,1,INDEX($B$2:$AE$2,MATCH((T1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>IFERROR(IF(T3=1,1,INDEX($B$2:$AE$2,MATCH((U1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>IFERROR(IF(U3=1,1,INDEX($B$2:$AE$2,MATCH((V1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>IFERROR(IF(V3=1,1,INDEX($B$2:$AE$2,MATCH((W1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>IFERROR(IF(W3=1,1,INDEX($B$2:$AE$2,MATCH((X1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y3">
+        <f>IFERROR(IF(X3=1,1,INDEX($B$2:$AE$2,MATCH((Y1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z3">
+        <f>IFERROR(IF(Y3=1,1,INDEX($B$2:$AE$2,MATCH((Z1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AA3">
+        <f>IFERROR(IF(Z3=1,1,INDEX($B$2:$AE$2,MATCH((AA1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
+        <f>IFERROR(IF(AA3=1,1,INDEX($B$2:$AE$2,MATCH((AB1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <f>IFERROR(IF(AB3=1,1,INDEX($B$2:$AE$2,MATCH((AC1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <f>IFERROR(IF(AC3=1,1,INDEX($B$2:$AE$2,MATCH((AD1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <f>IFERROR(IF(AD3=1,1,INDEX($B$2:$AE$2,MATCH((AE1-'BCS-DoSfCS'!$B$2),$B$1:$AE$1,0))),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>2030</v>
+      </c>
+      <c r="D9">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -753,14 +1426,14 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
@@ -861,108 +1534,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>About!$B$11*About!$A$9</f>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!D3)</f>
         <v>62.05</v>
       </c>
       <c r="E3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!E3)</f>
         <v>62.05</v>
       </c>
       <c r="F3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!F3)</f>
         <v>62.05</v>
       </c>
       <c r="G3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!G3)</f>
         <v>62.05</v>
       </c>
       <c r="H3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!H3)</f>
         <v>62.05</v>
       </c>
       <c r="I3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!I3)</f>
         <v>62.05</v>
       </c>
       <c r="J3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!J3)</f>
         <v>62.05</v>
       </c>
       <c r="K3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!K3)</f>
         <v>62.05</v>
       </c>
       <c r="L3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!L3)</f>
         <v>62.05</v>
       </c>
       <c r="M3">
-        <f>About!$B$11*About!$A$9</f>
+        <f>About!$B$11*About!$A$9*(1-Calculations!M3)</f>
         <v>62.05</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!N3)</f>
+        <v>62.05</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!O3)</f>
+        <v>62.05</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!P3)</f>
+        <v>62.05</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!Q3)</f>
+        <v>62.05</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!R3)</f>
+        <v>62.05</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!S3)</f>
+        <v>62.05</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!T3)</f>
+        <v>62.05</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!U3)</f>
+        <v>62.05</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!V3)</f>
+        <v>62.05</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!W3)</f>
+        <v>62.05</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!X3)</f>
+        <v>49.64</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!Y3)</f>
+        <v>37.229999999999997</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!Z3)</f>
+        <v>24.819999999999993</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9*(1-Calculations!AA3)</f>
+        <v>12.409999999999997</v>
       </c>
       <c r="AB3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AB3)</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AC3)</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AD3)</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>About!$B$11*About!$A$9*(1-Calculations!AE3)</f>
         <v>0</v>
       </c>
     </row>
@@ -971,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698252-CD29-4D86-9D7F-2214C5598602}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -982,9 +1673,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1770,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
